--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12758" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="EnchantData" sheetId="4" r:id="rId1"/>
-    <sheet name="HuntingField" sheetId="3" r:id="rId2"/>
-    <sheet name="Player" sheetId="2" r:id="rId3"/>
+    <sheet name="EquipmentData" sheetId="5" r:id="rId1"/>
+    <sheet name="EnchantData" sheetId="4" r:id="rId2"/>
+    <sheet name="HuntingField" sheetId="3" r:id="rId3"/>
+    <sheet name="Player" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,12 +176,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item0 4 item1 5 item2 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>success_reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item0 3 item1 3 item2 3</t>
+  </si>
+  <si>
+    <t>item0 3 item1 3 item2 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item0 5 item1 5 item2 5</t>
   </si>
 </sst>
 </file>
@@ -217,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,13 +248,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -534,68 +568,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -603,488 +604,38 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1096,15 +647,1166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <f>P17*Q17</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:R19" si="0">P18*Q18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19">
+        <v>-10</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1136,97 +1838,97 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>42</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" t="s">
+        <v>42</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1238,17 +1940,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1297,19 +1999,19 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EquipmentData" sheetId="5" r:id="rId1"/>
@@ -184,53 +184,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>player1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment0</t>
+  </si>
+  <si>
+    <t>equipment1</t>
+  </si>
+  <si>
+    <t>equipment2</t>
+  </si>
+  <si>
+    <t>item0</t>
+  </si>
+  <si>
+    <t>item0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enterLimit_battlePoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>att</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment0</t>
-  </si>
-  <si>
-    <t>equipment1</t>
-  </si>
-  <si>
-    <t>equipment2</t>
-  </si>
-  <si>
-    <t>item0</t>
-  </si>
-  <si>
-    <t>item0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2</t>
-  </si>
-  <si>
-    <t>item2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,11 +289,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -691,6 +694,7 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.6">
@@ -701,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -725,27 +729,27 @@
         <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -776,19 +780,19 @@
         <v>item0 6 item1 1 item2 0</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2">
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -796,7 +800,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -824,22 +828,23 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J54" si="0">M3&amp;" "&amp;N3&amp;" "&amp;O3&amp;" "&amp;P3&amp;" "&amp;Q3&amp;" "&amp;R3</f>
-        <v>item0 6 item1 1 item2 0</v>
+        <v>item0 7 item1 1 item2 0</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <f>N2+1</f>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -847,7 +852,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -875,22 +880,23 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>item0 6 item1 1 item2 0</v>
+        <v>item0 8 item1 1 item2 0</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <f t="shared" ref="N4:N22" si="1">N3+1</f>
+        <v>8</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -898,7 +904,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -926,22 +932,23 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>item0 6 item1 1 item2 0</v>
+        <v>item0 9 item1 1 item2 0</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -949,7 +956,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -977,22 +984,23 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>item0 6 item1 1 item2 0</v>
+        <v>item0 10 item1 1 item2 0</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1000,7 +1008,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1028,22 +1036,23 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>item0 7 item1 2 item2 0</v>
+        <v>item0 11 item1 3 item2 0</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1051,7 +1060,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1079,22 +1088,23 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>item0 7 item1 2 item2 0</v>
+        <v>item0 12 item1 3 item2 0</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1102,7 +1112,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1130,22 +1140,23 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>item0 7 item1 2 item2 0</v>
+        <v>item0 13 item1 3 item2 0</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1153,7 +1164,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1181,22 +1192,23 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>item0 7 item1 2 item2 0</v>
+        <v>item0 14 item1 3 item2 0</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1204,7 +1216,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1232,22 +1244,23 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>item0 7 item1 2 item2 0</v>
+        <v>item0 15 item1 3 item2 0</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1255,7 +1268,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1283,22 +1296,23 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>item0 8 item1 3 item2 0</v>
+        <v>item0 16 item1 6 item2 0</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1306,7 +1320,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <f>B12+1</f>
@@ -1336,22 +1350,23 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>item0 8 item1 3 item2 0</v>
+        <v>item0 17 item1 6 item2 0</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1359,14 +1374,14 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B22" si="1">B13+1</f>
+        <f t="shared" ref="B14:B22" si="2">B13+1</f>
         <v>12</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C22" si="2">C13+5</f>
+        <f t="shared" ref="C14:C22" si="3">C13+5</f>
         <v>60</v>
       </c>
       <c r="D14">
@@ -1389,22 +1404,23 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>item0 8 item1 3 item2 0</v>
+        <v>item0 18 item1 6 item2 0</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1412,52 +1428,53 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 19 item1 6 item2 0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 8 item1 3 item2 0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1465,52 +1482,53 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 20 item1 6 item2 0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 8 item1 3 item2 0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1518,52 +1536,53 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 21 item1 10 item2 0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 9 item1 4 item2 0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1571,52 +1590,53 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 22 item1 10 item2 0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 9 item1 4 item2 0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -1624,52 +1644,53 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 23 item1 10 item2 0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 9 item1 4 item2 0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1677,52 +1698,53 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 24 item1 10 item2 0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 9 item1 4 item2 0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1730,52 +1752,53 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 25 item1 10 item2 0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 9 item1 4 item2 0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -1783,52 +1806,53 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>item0 26 item1 10 item2 0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>item0 9 item1 4 item2 0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -1836,7 +1860,7 @@
     </row>
     <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -1867,19 +1891,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" s="3">
         <v>9</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="3">
         <v>5</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1887,7 +1911,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1919,19 +1943,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>9</v>
       </c>
       <c r="O24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P24">
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -1939,7 +1963,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1954,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ref="F25:F43" si="3">F24-0.05</f>
+        <f t="shared" ref="F25:F29" si="4">F24-0.05</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="G25">
@@ -1971,19 +1995,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>9</v>
       </c>
       <c r="O25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P25">
         <v>5</v>
       </c>
       <c r="Q25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -1991,7 +2015,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -2006,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84999999999999987</v>
       </c>
       <c r="G26">
@@ -2023,19 +2047,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26">
         <v>9</v>
       </c>
       <c r="O26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P26">
         <v>5</v>
       </c>
       <c r="Q26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2043,7 +2067,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2058,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="G27">
@@ -2075,19 +2099,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>9</v>
       </c>
       <c r="O27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P27">
         <v>5</v>
       </c>
       <c r="Q27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2095,7 +2119,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -2110,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74999999999999978</v>
       </c>
       <c r="G28">
@@ -2127,19 +2151,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>9</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28">
         <v>5</v>
       </c>
       <c r="Q28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2147,7 +2171,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2162,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69999999999999973</v>
       </c>
       <c r="G29">
@@ -2179,19 +2203,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>9</v>
       </c>
       <c r="O29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P29">
         <v>5</v>
       </c>
       <c r="Q29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2199,7 +2223,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -2230,19 +2254,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>9</v>
       </c>
       <c r="O30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P30">
         <v>5</v>
       </c>
       <c r="Q30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2250,7 +2274,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -2281,19 +2305,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>9</v>
       </c>
       <c r="O31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P31">
         <v>5</v>
       </c>
       <c r="Q31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2301,7 +2325,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -2332,19 +2356,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P32">
         <v>5</v>
       </c>
       <c r="Q32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2352,7 +2376,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -2383,19 +2407,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>9</v>
       </c>
       <c r="O33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33">
         <v>5</v>
       </c>
       <c r="Q33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2403,7 +2427,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <f>B33+1</f>
@@ -2436,19 +2460,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>9</v>
       </c>
       <c r="O34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P34">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -2456,14 +2480,14 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:B43" si="4">B34+1</f>
+        <f t="shared" ref="B35:B43" si="5">B34+1</f>
         <v>12</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C43" si="5">C34+10</f>
+        <f t="shared" ref="C35:C43" si="6">C34+10</f>
         <v>120</v>
       </c>
       <c r="D35">
@@ -2489,19 +2513,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>9</v>
       </c>
       <c r="O35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P35">
         <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2509,14 +2533,14 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="D36">
@@ -2542,19 +2566,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>9</v>
       </c>
       <c r="O36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P36">
         <v>5</v>
       </c>
       <c r="Q36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -2562,14 +2586,14 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="D37">
@@ -2595,19 +2619,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>9</v>
       </c>
       <c r="O37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P37">
         <v>5</v>
       </c>
       <c r="Q37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -2615,14 +2639,14 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="D38">
@@ -2648,19 +2672,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>9</v>
       </c>
       <c r="O38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38">
         <v>5</v>
       </c>
       <c r="Q38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -2668,14 +2692,14 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="D39">
@@ -2701,19 +2725,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N39">
         <v>9</v>
       </c>
       <c r="O39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P39">
         <v>5</v>
       </c>
       <c r="Q39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -2721,14 +2745,14 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="D40">
@@ -2754,19 +2778,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>9</v>
       </c>
       <c r="O40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P40">
         <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -2774,14 +2798,14 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="D41">
@@ -2807,19 +2831,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N41">
         <v>9</v>
       </c>
       <c r="O41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P41">
         <v>5</v>
       </c>
       <c r="Q41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -2827,14 +2851,14 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="D42">
@@ -2860,19 +2884,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>9</v>
       </c>
       <c r="O42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P42">
         <v>5</v>
       </c>
       <c r="Q42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -2880,14 +2904,14 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="D43">
@@ -2913,19 +2937,19 @@
         <v>item0 9 item1 5 item2 0</v>
       </c>
       <c r="M43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>9</v>
       </c>
       <c r="O43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43">
         <v>5</v>
       </c>
       <c r="Q43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -2933,7 +2957,7 @@
     </row>
     <row r="44" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -2964,19 +2988,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N44">
         <v>15</v>
       </c>
       <c r="O44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P44">
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -2984,7 +3008,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3015,19 +3039,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>15</v>
       </c>
       <c r="O45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P45">
         <v>3</v>
       </c>
       <c r="Q45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -3035,7 +3059,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3066,19 +3090,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>15</v>
       </c>
       <c r="O46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P46">
         <v>3</v>
       </c>
       <c r="Q46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -3086,7 +3110,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -3117,19 +3141,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>15</v>
       </c>
       <c r="O47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P47">
         <v>3</v>
       </c>
       <c r="Q47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R47">
         <v>2</v>
@@ -3137,7 +3161,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -3168,19 +3192,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>15</v>
       </c>
       <c r="O48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48">
         <v>3</v>
       </c>
       <c r="Q48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -3188,7 +3212,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -3219,19 +3243,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N49">
         <v>15</v>
       </c>
       <c r="O49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P49">
         <v>3</v>
       </c>
       <c r="Q49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R49">
         <v>2</v>
@@ -3239,7 +3263,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3270,19 +3294,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>15</v>
       </c>
       <c r="O50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P50">
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -3290,7 +3314,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3321,19 +3345,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>15</v>
       </c>
       <c r="O51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P51">
         <v>3</v>
       </c>
       <c r="Q51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -3341,7 +3365,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3372,19 +3396,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N52">
         <v>15</v>
       </c>
       <c r="O52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P52">
         <v>3</v>
       </c>
       <c r="Q52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -3392,7 +3416,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -3423,19 +3447,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N53">
         <v>15</v>
       </c>
       <c r="O53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P53">
         <v>3</v>
       </c>
       <c r="Q53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -3443,7 +3467,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -3474,19 +3498,19 @@
         <v>item0 15 item1 3 item2 2</v>
       </c>
       <c r="M54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N54">
         <v>15</v>
       </c>
       <c r="O54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P54">
         <v>3</v>
       </c>
       <c r="Q54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -3503,22 +3527,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.0625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -3663,7 +3696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -3720,7 +3753,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
